--- a/app/data/absenteeism_data_9.xlsx
+++ b/app/data/absenteeism_data_9.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>75676</v>
+        <v>96368</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Davi Luiz Azevedo</t>
+          <t>André Azevedo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,111 +497,111 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45105</v>
+        <v>45091</v>
       </c>
       <c r="G2" t="n">
-        <v>6609.06</v>
+        <v>9383.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>23056</v>
+        <v>18745</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sra. Rafaela Porto</t>
+          <t>Diogo Monteiro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45101</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>4022.49</v>
+        <v>5661.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>23317</v>
+        <v>63</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lucas Gabriel Duarte</t>
+          <t>Dr. Benício Monteiro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45095</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>11225.11</v>
+        <v>8202.51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>95966</v>
+        <v>32942</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bryan Moraes</t>
+          <t>Luiz Fernando Alves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45091</v>
       </c>
       <c r="G5" t="n">
-        <v>7569.67</v>
+        <v>3209.15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>81595</v>
+        <v>34203</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Clara Santos</t>
+          <t>Kevin Araújo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,80 +610,80 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45096</v>
+        <v>45105</v>
       </c>
       <c r="G6" t="n">
-        <v>8651.24</v>
+        <v>7483.92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>60483</v>
+        <v>23621</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Leandro Aragão</t>
+          <t>Vitor Barbosa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45093</v>
+        <v>45088</v>
       </c>
       <c r="G7" t="n">
-        <v>7946.85</v>
+        <v>8212.549999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>62505</v>
+        <v>42736</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Srta. Clarice Fernandes</t>
+          <t>Marcela Nascimento</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45100</v>
+        <v>45095</v>
       </c>
       <c r="G8" t="n">
-        <v>3063.66</v>
+        <v>2612.76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>44217</v>
+        <v>15541</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Juan Gomes</t>
+          <t>Maria Sophia Cunha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,75 +693,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45083</v>
+        <v>45098</v>
       </c>
       <c r="G9" t="n">
-        <v>5008.05</v>
+        <v>3946.97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>57813</v>
+        <v>96293</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ana Sophia Martins</t>
+          <t>Dr. Diogo Barbosa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>9574.129999999999</v>
+        <v>3201.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7692</v>
+        <v>90945</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Emanuelly Costa</t>
+          <t>Sophia da Cruz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45099</v>
       </c>
       <c r="G11" t="n">
-        <v>9265.85</v>
+        <v>2719.45</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_9.xlsx
+++ b/app/data/absenteeism_data_9.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>45908</v>
+        <v>74754</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eduarda Nunes</t>
+          <t>Samuel Jesus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45089</v>
+        <v>45097</v>
       </c>
       <c r="G2" t="n">
-        <v>10866.26</v>
+        <v>5591.15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>92804</v>
+        <v>43844</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lucas Almeida</t>
+          <t>Emanuelly Costa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45091</v>
+        <v>45089</v>
       </c>
       <c r="G3" t="n">
-        <v>4971.86</v>
+        <v>6631.99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>32856</v>
+        <v>36954</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>João Miguel Gomes</t>
+          <t>Lorenzo Caldeira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,55 +548,55 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45094</v>
+        <v>45088</v>
       </c>
       <c r="G4" t="n">
-        <v>8717.559999999999</v>
+        <v>6156.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7060</v>
+        <v>11787</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Emilly da Rosa</t>
+          <t>Sophia Freitas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45081</v>
+        <v>45082</v>
       </c>
       <c r="G5" t="n">
-        <v>10703.75</v>
+        <v>4307.49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97863</v>
+        <v>52571</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Daniel Martins</t>
+          <t>Luigi Lima</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,82 +613,82 @@
         <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45106</v>
+        <v>45094</v>
       </c>
       <c r="G6" t="n">
-        <v>7510.36</v>
+        <v>2619.37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>22537</v>
+        <v>17483</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vitor Gabriel Rezende</t>
+          <t>Maria Fernanda Peixoto</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45097</v>
+        <v>45095</v>
       </c>
       <c r="G7" t="n">
-        <v>9697.26</v>
+        <v>10094.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13870</v>
+        <v>87806</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Thales Caldeira</t>
+          <t>Ana Júlia Dias</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45087</v>
+        <v>45106</v>
       </c>
       <c r="G8" t="n">
-        <v>4274.65</v>
+        <v>8507.309999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>31215</v>
+        <v>53968</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Isabel Silveira</t>
+          <t>Dr. Thiago Cunha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,56 +697,56 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45096</v>
+        <v>45099</v>
       </c>
       <c r="G9" t="n">
-        <v>6437.11</v>
+        <v>8474.85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13787</v>
+        <v>39487</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Anthony da Cruz</t>
+          <t>Alexandre Novaes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45079</v>
+        <v>45093</v>
       </c>
       <c r="G10" t="n">
-        <v>7118.22</v>
+        <v>7620.82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>81613</v>
+        <v>43929</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kaique Nunes</t>
+          <t>Benjamin Viana</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45098</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>5351.53</v>
+        <v>10289.9</v>
       </c>
     </row>
   </sheetData>
